--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais/Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais/Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Nord-Pas-de-Calais</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces végétales protégées en Nord-Pas-de-Calais est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Nord-Pas-de-Calais, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 1er avril 1991[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces végétales protégées en Nord-Pas-de-Calais est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Nord-Pas-de-Calais, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 1er avril 1991.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Nord-Pas-de-Calais</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Botrychium lunaria  (L.) Swartz, Botryche lunaire.
 Equisetum sylvaticum  L., Prêle des bois.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Nord-Pas-de-Calais</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gymnospermes
-Juniperus communis  L., Genévrier commun.
-Angiospermes
-Monocotylédones
-Alisma lanceolatum With, Plantain d'eau à feuilles lancéolées.
+          <t>Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juniperus communis  L., Genévrier commun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alisma lanceolatum With, Plantain d'eau à feuilles lancéolées.
 Alopecurus aequalis Sobol., Vulpin roux.
 Alopecurus rendlei Eig., Vulpin utriculé.
 Baldellia ranunculoides (L.) Parl., Flûteau fausse-renoncule.
@@ -607,9 +663,47 @@
 Sparganium minimum Wallr., Rubanier nain.
 Spiranthes spiralis (L.) Chevall., Spiranthe d'automne.
 Stratiotes aloides L., Faux-aloès.
-Triglochin palustre L., Troscart des marais.
-Dicotylédones
-Achillea ptarmica L., Achillée sternutatoire.
+Triglochin palustre L., Troscart des marais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Achillea ptarmica L., Achillée sternutatoire.
 Althaea officinalis L., Guimauve officinale.
 Anagallis tenella (L.) L., Mouron délicat.
 Angelica archangelica L., Angélique vraie.
